--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="14835" windowHeight="3765" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="14835" windowHeight="3765" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="プライベートチェーン構築" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="nodejs" sheetId="6" r:id="rId6"/>
+    <sheet name="AI" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>https://baasinfo.net/?p=3331</t>
     <phoneticPr fontId="1"/>
@@ -296,6 +298,169 @@
     <t>{
   "server_account": {
     "privateKey": F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道路運送車両法</t>
+  </si>
+  <si>
+    <t>GDPR(EU一般データ保護規則)</t>
+  </si>
+  <si>
+    <t>透明性レポート</t>
+  </si>
+  <si>
+    <t>ELSIL</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>情報銀行</t>
+  </si>
+  <si>
+    <t>XAI(Explainable AI)</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像認識</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法律</t>
+    <rPh sb="0" eb="2">
+      <t>ホウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マックスプーリングとアベレージプーリングの逆伝播の仕方</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>MAML</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>セマンティックセグメンテーション、インスタンスセグメンテーション、パノプティックセグメンテーション、一般物体検知の違い</t>
+  </si>
+  <si>
+    <t>YOLO、R-CNN、U-Net、SSDLite</t>
+  </si>
+  <si>
+    <t>ILSVRC歴代優勝モデルの原理や構造（Inceptionモジュールなど）</t>
+  </si>
+  <si>
+    <t>統計手法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューラルネットワーク）機械学習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準伝播</t>
+  </si>
+  <si>
+    <t>逆伝播</t>
+  </si>
+  <si>
+    <t>畳み込み</t>
+  </si>
+  <si>
+    <t>参考情報</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://machine-learning.hatenablog.com/archive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎的な確率モデルから最新の機械学習技術まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://twitter.com/picker_wtb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://twitter.com/sammy_suyama</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業・研究機関</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動運転ラボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jidounten-lab.com/u_case-list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業界全体の指針となっている。コネクテッド（C）、自動運転（A）、シェアリング・サービス（S）、電動化（E）の頭文字を集めた造語</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CASE社会の実現に向け、国に求められるのが「LIST」だ。これは、自動運転専門メディアである自動運転ラボが独自に策定した造語で、「Law（法の整備）」「Infrastructure（インフラの整備）」「Social acceptance（社会受容性の向上）」「Technology Promotion（技術振興）」の頭文字をとったもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jidounten-lab.com/u_case-list</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -354,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +527,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,6 +1074,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="685800"/>
+          <a:ext cx="4477375" cy="1543265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -1572,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1588,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1610,4 +1821,242 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D30" r:id="rId1"/>
+    <hyperlink ref="D31" r:id="rId2"/>
+    <hyperlink ref="D32" r:id="rId3"/>
+    <hyperlink ref="D35" r:id="rId4"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+</worksheet>
 </file>
--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="14835" windowHeight="3765" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="14835" windowHeight="3765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
   <si>
     <t>https://baasinfo.net/?p=3331</t>
     <phoneticPr fontId="1"/>
@@ -462,13 +462,181 @@
   <si>
     <t>https://jidounten-lab.com/u_case-list</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩崎</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jidounten-lab.com/u_autonomous-2020-law</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jidounten-lab.com/u_case-list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自動運転などCASE実現へ、国が重視すべき新ワード「LIST」とは？法律、インフラ、社会受容性、技術振興
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自動運転、幕開け期の2020年代に向けた法律改正の動きを解説
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動運転の公道実証実験における重要7条件まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jidounten-lab.com/u_autonomous-test-7-matome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先進運転支援システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動車公正取引協議会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">消費者庁公正取引委員会から認定されたルール「自動車公正競争規約」を運用する自動車公正取引協議会（公取協）
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>singleton-1776-meta-transaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>multi-token-standard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meta-transaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erc20-meta-token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メタトランザクションの実装例</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.matic.network/docs/develop/metatransactions/getting-started</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マティックのメタトランザクションについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StandardToken.sol</t>
+  </si>
+  <si>
+    <t>ERC20.sol</t>
+  </si>
+  <si>
+    <t>BasicToken.sol</t>
+  </si>
+  <si>
+    <t>ERC20Basic.sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  function totalSupply() public view returns (uint256);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  function balanceOf(address _who) public view returns (uint256);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  function transfer(address _to, uint256 _value) public returns (bool);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  event Transfer(address indexed from, address indexed to, uint256 value);</t>
+  </si>
+  <si>
+    <t>mapping(address =&gt; uint256) internal balances;</t>
+  </si>
+  <si>
+    <t>uint256 internal totalSupply_;</t>
+  </si>
+  <si>
+    <t>using SafeMath for uint256;</t>
+  </si>
+  <si>
+    <t>function totalSupply() public view returns (uint256) {</t>
+  </si>
+  <si>
+    <t>function balanceOf(address _owner) public view returns (uint256) {</t>
+  </si>
+  <si>
+    <t>function allowance(address _owner, address _spender)</t>
+  </si>
+  <si>
+    <t>function transferFrom(address _from, address _to, uint256 _value)</t>
+  </si>
+  <si>
+    <t>function approve(address _spender, uint256 _value) public returns (bool);</t>
+  </si>
+  <si>
+    <t>event Approval(address indexed owner, address indexed spender, uint256 value);</t>
+  </si>
+  <si>
+    <t>function approve(address _spender, uint256 _value) public returns (bool) {</t>
+  </si>
+  <si>
+    <t>function allowance( address _owner, address _spender){</t>
+  </si>
+  <si>
+    <t>function transferFrom( address _from, address _to, uint256 _value ){</t>
+  </si>
+  <si>
+    <t>function decreaseApproval( address _spender, uint256 _subtractedValue ){</t>
+  </si>
+  <si>
+    <t>function increaseApproval( address _spender, uint256 _addedValue ){</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +658,23 @@
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -519,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,8 +714,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1491,10 +1685,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1563,27 +1757,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>44</v>
       </c>
@@ -1591,7 +1785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1599,42 +1793,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -1759,14 +1956,185 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C101" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C102" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C106" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C107" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C112" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C113" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C114" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C115" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C116" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +2142,10 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B54" r:id="rId2"/>
+    <hyperlink ref="B76" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1799,9 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1827,9 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1841,25 +2207,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>77</v>
       </c>
@@ -1867,37 +2242,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>73</v>
       </c>
@@ -1905,20 +2280,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -1926,17 +2301,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +2351,7 @@
       <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2005,58 +2380,104 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D32" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="C40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1"/>
-    <hyperlink ref="D31" r:id="rId2"/>
-    <hyperlink ref="D32" r:id="rId3"/>
-    <hyperlink ref="D35" r:id="rId4"/>
+    <hyperlink ref="D33" r:id="rId1"/>
+    <hyperlink ref="D34" r:id="rId2"/>
+    <hyperlink ref="D35" r:id="rId3"/>
+    <hyperlink ref="D38" r:id="rId4"/>
     <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D40" r:id="rId6"/>
+    <hyperlink ref="D41" r:id="rId7"/>
+    <hyperlink ref="D42" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="14835" windowHeight="3765" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="14835" windowHeight="3765" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
   <si>
     <t>https://baasinfo.net/?p=3331</t>
     <phoneticPr fontId="1"/>
@@ -602,6 +602,9 @@
     <t>function totalSupply() public view returns (uint256) {</t>
   </si>
   <si>
+    <t>function transfer(address _to, uint256 _value) public returns (bool) {</t>
+  </si>
+  <si>
     <t>function balanceOf(address _owner) public view returns (uint256) {</t>
   </si>
   <si>
@@ -630,6 +633,90 @@
   </si>
   <si>
     <t>function increaseApproval( address _spender, uint256 _addedValue ){</t>
+  </si>
+  <si>
+    <t>627306090abab3a6e1400e9345bc60c78a8bef57</t>
+  </si>
+  <si>
+    <t>ba420816000000000000000000000000627306090abab3a6e1400e9345bc60c78a8bef57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>000000000000000000000000627306090abab3a6e1400e9345bc60c78a8bef57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ba420816000000000000000000000000627306090abab3a6e1400e9345bc60c78a8bef57000000000000000000000000f17f52151ebef6c7334fad080c5704d77216b73200000000000000000000000000000000000000000000000000000000000f4240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a0000000000000000000000006273060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿題</t>
+    <rPh sb="0" eb="2">
+      <t>シュクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte 配列の長さ比較</t>
+    <rPh sb="5" eb="7">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログの解析関数作成</t>
+    <rPh sb="3" eb="5">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>truffle test **.js の実行の仕方</t>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stefan.george@consensys.net</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multisignature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡易なトランザクション発行</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチシグ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -671,12 +758,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color rgb="FF959BAD"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -704,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,7 +808,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,49 +1359,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>467350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>215</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="790575" y="685800"/>
-          <a:ext cx="4477375" cy="1543265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -1685,10 +1733,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2073,13 +2121,13 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="6" t="s">
-        <v>141</v>
+      <c r="C102" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C103" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.15">
@@ -2089,22 +2137,22 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C106" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C107" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.15">
@@ -2114,28 +2162,120 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C112" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C113" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C114" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C115" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C116" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C121">
+        <f>LEN(C120)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C123">
+        <f>LEN(C122)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C125">
+        <f>LEN(C124)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C127">
+        <f>C123-C121</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C128">
+        <f>C127/2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135">
+        <f>LEN(C134)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C139" s="7">
+        <v>2937175</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C140" s="7">
+        <v>2968936</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C141" s="8">
+        <f>C140-C139</f>
+        <v>31761</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C143" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2145,7 +2285,7 @@
     <hyperlink ref="B76" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2153,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2193,15 +2333,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A19:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2478,6 +2662,6 @@
     <hyperlink ref="D42" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>